--- a/biology/Médecine/Charles-Eugène_Marin/Charles-Eugène_Marin.xlsx
+++ b/biology/Médecine/Charles-Eugène_Marin/Charles-Eugène_Marin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles-Eug%C3%A8ne_Marin</t>
+          <t>Charles-Eugène_Marin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles-Eugène Marin (né le 29 octobre 1925 et mort le 7 juin 2017 à Sainte-Anne-des-Monts[1]) est un médecin, psychiatre et homme politique municipal et fédéral du Québec.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles-Eugène Marin (né le 29 octobre 1925 et mort le 7 juin 2017 à Sainte-Anne-des-Monts) est un médecin, psychiatre et homme politique municipal et fédéral du Québec.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles-Eug%C3%A8ne_Marin</t>
+          <t>Charles-Eugène_Marin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Sainte-Anne-des-Monts en Gaspésie, Charles-Eugène Marin servit comme maire de cette municipalité de 1977 à 1984[2]. En 1984, il est élu député du Parti progressiste-conservateur du Canada dans la circonscription de Gaspé. Réélu en 1988, il fut défait par le bloquiste Yvan Bernier en 1993[2].
-Pendant sa carrière de médecin et de psychiatre, il participe à la fondation de plusieurs organismes sociaux dans le domaine de la santé pour desservir les résidents de Sainte-Anne-des-Monts et de la Gaspésie[3]. Il est aussi à l'origine de la fondation du musée-aquarium Exploramer en 1995, connu à l'époque sous le nom de Explorama, mer, monts et merveilles[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Sainte-Anne-des-Monts en Gaspésie, Charles-Eugène Marin servit comme maire de cette municipalité de 1977 à 1984. En 1984, il est élu député du Parti progressiste-conservateur du Canada dans la circonscription de Gaspé. Réélu en 1988, il fut défait par le bloquiste Yvan Bernier en 1993.
+Pendant sa carrière de médecin et de psychiatre, il participe à la fondation de plusieurs organismes sociaux dans le domaine de la santé pour desservir les résidents de Sainte-Anne-des-Monts et de la Gaspésie. Il est aussi à l'origine de la fondation du musée-aquarium Exploramer en 1995, connu à l'époque sous le nom de Explorama, mer, monts et merveilles.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles-Eug%C3%A8ne_Marin</t>
+          <t>Charles-Eugène_Marin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles-Eugène  Marin est nommé membre de l'ordre du Canada le 17 décembre 1984, honneur dont il est investi le 10 avril 1985[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles-Eugène  Marin est nommé membre de l'ordre du Canada le 17 décembre 1984, honneur dont il est investi le 10 avril 1985. 
 </t>
         </is>
       </c>
